--- a/Supplementary Table 8.xlsx
+++ b/Supplementary Table 8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldoa\OneDrive\Desktop\Prack ISME docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldoa\OneDrive\Documents\GitHub\wyeomyia-niche-construction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7D09BA-5660-402B-8FB8-D71AB065B60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119F963C-EF9C-4DB5-9B36-DCBC7A90056F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{2799B8E6-E0F9-4443-B26B-096D91E77B22}"/>
+    <workbookView xWindow="-28920" yWindow="1170" windowWidth="29040" windowHeight="17520" xr2:uid="{2799B8E6-E0F9-4443-B26B-096D91E77B22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
   <si>
     <t>Comparison</t>
   </si>
@@ -59,9 +59,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>&lt; 0.001</t>
-  </si>
-  <si>
     <t>Laboratory species pool</t>
   </si>
   <si>
@@ -134,7 +131,31 @@
     <t>Parental: Uncolonized Field (1:1)</t>
   </si>
   <si>
-    <t>&lt;0.001</t>
+    <t>* p &lt; 0.05, ** p &lt; 0.01, *** p &lt; 0.001</t>
+  </si>
+  <si>
+    <t>&lt; 0.001 ***</t>
+  </si>
+  <si>
+    <t>0.019 *</t>
+  </si>
+  <si>
+    <t>0.008 **</t>
+  </si>
+  <si>
+    <t>0.013 *</t>
+  </si>
+  <si>
+    <t>&lt;0.001 ***</t>
+  </si>
+  <si>
+    <t>0.001 ***</t>
+  </si>
+  <si>
+    <t>0.015 *</t>
+  </si>
+  <si>
+    <t>0.005 **</t>
   </si>
 </sst>
 </file>
@@ -144,7 +165,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +174,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,6 +235,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -536,12 +578,12 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5546875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
@@ -554,14 +596,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
@@ -582,8 +624,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
+      <c r="A3" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
@@ -593,36 +635,36 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4">
         <v>-57.005000000000003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E4" s="4">
         <v>-0.87874395000000005</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4">
         <v>-33.356999999999999</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>6</v>
@@ -633,10 +675,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -653,96 +695,96 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4">
         <v>-21.151</v>
       </c>
-      <c r="D7" s="1">
-        <v>1.9E-2</v>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E7" s="4">
         <v>0.42439852</v>
       </c>
-      <c r="F7" s="1">
-        <v>1.4999999999999999E-2</v>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4">
         <v>23.648689999999998</v>
       </c>
-      <c r="D8" s="1">
-        <v>8.0000000000000002E-3</v>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E8" s="4">
         <v>1.0947872999999999</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4">
         <v>45.93824</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4">
         <v>0.96299999999999997</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4">
         <v>35.853189999999998</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E10" s="4">
         <v>1.3029999999999999</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4">
         <v>22.289000000000001</v>
       </c>
-      <c r="D11" s="5">
-        <v>1.2999999999999999E-2</v>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>6</v>
@@ -753,10 +795,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>6</v>
@@ -773,27 +815,27 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="F13" s="1">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -803,16 +845,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="4">
         <v>23.591000000000001</v>
       </c>
-      <c r="D15" s="1">
-        <v>8.0000000000000002E-3</v>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>6</v>
@@ -823,56 +865,56 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1">
         <v>35.070999999999998</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E16" s="4">
         <v>-0.49199999999999999</v>
       </c>
-      <c r="F16" s="1">
-        <v>5.0000000000000001E-3</v>
+      <c r="F16" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1">
         <v>28.462</v>
       </c>
-      <c r="D17" s="1">
-        <v>1E-3</v>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E17" s="1">
         <v>0.85399999999999998</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="4">
         <v>39.942999999999998</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>6</v>
@@ -883,10 +925,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
@@ -898,21 +940,21 @@
         <v>-0.6381</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="4">
         <v>31.850999999999999</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>6</v>
@@ -930,6 +972,9 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
       <c r="D22" s="1"/>
